--- a/2022_07_27/2022_07_27_EUROSTOXX_MaxArea_Portfolio_250.xlsx
+++ b/2022_07_27/2022_07_27_EUROSTOXX_MaxArea_Portfolio_250.xlsx
@@ -5,17 +5,29 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filip\Desktop\investments_f\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filip\Desktop\investments_f\2022_07_27\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DEA135E-47DD-4D14-B417-3FE5FC77F259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9D1E703-6A41-46A0-B764-F1BB8B584CED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -498,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AQ2"/>
+  <dimension ref="A1:AQ7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AK2" sqref="AK2"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -527,7 +539,7 @@
     <col min="19" max="19" width="6.90625" customWidth="1"/>
     <col min="20" max="20" width="8.54296875" customWidth="1"/>
     <col min="21" max="21" width="7.7265625" customWidth="1"/>
-    <col min="22" max="22" width="6.1796875" customWidth="1"/>
+    <col min="22" max="22" width="6.90625" customWidth="1"/>
     <col min="23" max="23" width="6.81640625" customWidth="1"/>
     <col min="24" max="24" width="7.6328125" customWidth="1"/>
     <col min="25" max="25" width="6.90625" customWidth="1"/>
@@ -813,6 +825,186 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3" spans="1:43">
+      <c r="A3" s="1">
+        <f>A2/235.48</f>
+        <v>0</v>
+      </c>
+      <c r="B3" s="1">
+        <f t="shared" ref="B3:AQ3" si="0">B2/235.48</f>
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L3" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M3" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N3" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P3" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q3" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R3" s="1">
+        <f t="shared" si="0"/>
+        <v>0.39482409935791124</v>
+      </c>
+      <c r="S3" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T3" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U3" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V3" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W3" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X3" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y3" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z3" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA3" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB3" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC3" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD3" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE3" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF3" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG3" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AH3" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AI3" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AK3" s="1">
+        <f t="shared" si="0"/>
+        <v>0.13471805890181784</v>
+      </c>
+      <c r="AL3" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AM3" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AN3" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AO3" s="1">
+        <f t="shared" si="0"/>
+        <v>0.47045784174027078</v>
+      </c>
+      <c r="AP3" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:43">
+      <c r="A7">
+        <f>SUM(2:2)</f>
+        <v>235.47999999999996</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
